--- a/datasheet/Sensitivity_curves.xlsx
+++ b/datasheet/Sensitivity_curves.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ols/git/Arduino-MQ131-driver/datasheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4DDBD0-DCC8-5A4D-9C99-D32F46AAC576}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED2BABB-880A-CC43-B293-C237FF9FD4BD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20020" yWindow="460" windowWidth="25600" windowHeight="27000" xr2:uid="{C31139D4-38F9-5144-822A-899005BA4EB0}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="27000" xr2:uid="{C31139D4-38F9-5144-822A-899005BA4EB0}"/>
   </bookViews>
   <sheets>
     <sheet name="MQ131-black" sheetId="3" r:id="rId1"/>
+    <sheet name="MQ131-metal" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>ppm</t>
   </si>
@@ -67,6 +68,9 @@
   </si>
   <si>
     <t>Temp (°C)</t>
+  </si>
+  <si>
+    <t>MQ131 (Metal)</t>
   </si>
 </sst>
 </file>
@@ -157,27 +161,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="11">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -242,6 +233,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2597,6 +2610,1596 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-CCBF-0241-BB0B-8A5ECDAFC3A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="435883135"/>
+        <c:axId val="435884383"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="435883135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435884383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="435884383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.9"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435883135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>O3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MQ131-metal'!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ppm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.3267811403092682E-2"/>
+                  <c:y val="-9.531195528039911E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MQ131-metal'!$A$38:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MQ131-metal'!$B$38:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CD55-FF4F-8C41-9D1F5B20FDDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="384404207"/>
+        <c:axId val="296286383"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="384404207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="296286383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="296286383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="384404207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sensitivity</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Characteristics</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MQ131-metal'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rs/R0 O3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MQ131-metal'!$A$6:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MQ131-metal'!$B$6:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-96AA-E742-8026-5604F2EF4F9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="435868271"/>
+        <c:axId val="435869951"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="435868271"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435869951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="435869951"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="1.0000000000000002E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435868271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Influence</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Temperature/Humidity on resistance ratio Rs/R0</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MQ131-metal'!$B$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60% Hum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.688042226487524"/>
+                  <c:y val="-0.47768921428681066"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MQ131-metal'!$A$56:$A$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MQ131-metal'!$B$56:$B$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-34FB-E64A-9B1A-3A8CD7DAAFA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MQ131-metal'!$C$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30% Hum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.67268714011516317"/>
+                  <c:y val="-0.55590980951942415"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MQ131-metal'!$A$56:$A$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MQ131-metal'!$C$56:$C$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-34FB-E64A-9B1A-3A8CD7DAAFA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MQ131-metal'!$D$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>85% Hum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.70723608445297503"/>
+                  <c:y val="-0.39526592070728001"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MQ131-metal'!$A$56:$A$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MQ131-metal'!$D$56:$D$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-34FB-E64A-9B1A-3A8CD7DAAFA9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3026,6 +4629,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4971,6 +6694,1464 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5643,8 +8824,127 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94140702-A017-BF4D-A519-8F3E90B232C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{998BB64A-0044-4846-B70A-B0B1BAB9029C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{232719B5-3991-3E4A-A630-564E7757E4E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC3EBC91-A6EC-EF41-B88C-8EE6CA41C528}" name="Table1" displayName="Table1" ref="A5:D10" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC3EBC91-A6EC-EF41-B88C-8EE6CA41C528}" name="Table1" displayName="Table1" ref="A5:D10" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A5:D10" xr:uid="{187AC7DF-F74C-3449-A57E-29E6156055B3}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{54E9389B-17C2-4B4B-8046-BD403932BF48}" name="ppm"/>
@@ -5657,7 +8957,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E5370191-2BA5-444A-AFC7-78BEE24C9DF8}" name="Table2" displayName="Table2" ref="A37:B42" totalsRowShown="0" headerRowDxfId="1" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E5370191-2BA5-444A-AFC7-78BEE24C9DF8}" name="Table2" displayName="Table2" ref="A37:B42" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A37:B42" xr:uid="{4EC90098-BA39-1F4E-A803-1439A56715C0}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{1758A4A2-4705-724E-A6DE-1A972C938640}" name="Rs/R0 NOx" dataDxfId="7"/>
@@ -5668,7 +8968,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DEA1B590-A888-3945-8956-275AE7EF56E0}" name="Table3" displayName="Table3" ref="A56:B61" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DEA1B590-A888-3945-8956-275AE7EF56E0}" name="Table3" displayName="Table3" ref="A56:B61" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A56:B61" xr:uid="{03BE280C-4E19-5746-A006-AF7905CD1084}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{CD3A47FA-7FC9-0243-BAEB-EF7653787F3D}" name="Rs/R0 CL2"/>
@@ -5679,7 +8979,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D0BAF09F-B6B5-D749-98CA-1059D0FE6D3F}" name="Table4" displayName="Table4" ref="A74:B79" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D0BAF09F-B6B5-D749-98CA-1059D0FE6D3F}" name="Table4" displayName="Table4" ref="A74:B79" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A74:B79" xr:uid="{5BA3FEEF-229E-6244-AB51-3FD355D1344E}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{15ED33C0-6F64-F241-9018-F23294D8BF12}" name="Rs/R0 O3"/>
@@ -5690,13 +8990,48 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A3D6E9DD-3D66-5441-9E83-006E7A378DC8}" name="Table5" displayName="Table5" ref="A92:D100" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A3D6E9DD-3D66-5441-9E83-006E7A378DC8}" name="Table5" displayName="Table5" ref="A92:D100" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A92:D100" xr:uid="{548C53A6-F6A9-FD4E-986D-AE4C1DC18978}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{C66C4C25-C90F-7248-889A-271BDEC6FBB3}" name="Temp (°C)"/>
     <tableColumn id="2" xr3:uid="{7FB1B544-147F-2F46-B10B-A629F5589787}" name="60% Hum"/>
     <tableColumn id="3" xr3:uid="{7CDB6234-8796-1F43-997F-F0735AD153E8}" name="30% Hum"/>
     <tableColumn id="4" xr3:uid="{11C08DB0-FBD0-3B47-BB6E-50898EB7A7BD}" name="85% Hum"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{239B6DEF-C938-2541-A79C-4DF65B42830B}" name="Table17" displayName="Table17" ref="A5:B11" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A5:B11" xr:uid="{187AC7DF-F74C-3449-A57E-29E6156055B3}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C68BAAA8-7A9B-3549-B49D-AB45CEB9D4BF}" name="ppm"/>
+    <tableColumn id="2" xr3:uid="{C9295F06-9A06-6F45-A006-BD1B3495EA8E}" name="Rs/R0 O3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{6262E926-7604-CB4C-8422-B01DC0D773F7}" name="Table410" displayName="Table410" ref="A37:B43" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A37:B43" xr:uid="{5BA3FEEF-229E-6244-AB51-3FD355D1344E}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{9EBF5DCB-D20E-E245-A06A-A6F256C145EC}" name="Rs/R0 O3"/>
+    <tableColumn id="2" xr3:uid="{0034E073-DF67-9D43-9BEF-1D25B7C24AD1}" name="ppm"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{9C92E0EC-588B-EE45-A3CD-F738A1B67788}" name="Table511" displayName="Table511" ref="A55:D63" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A55:D63" xr:uid="{548C53A6-F6A9-FD4E-986D-AE4C1DC18978}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{C0FA8CC5-5357-D648-AA0C-7E6C6E34D5FB}" name="Temp (°C)"/>
+    <tableColumn id="2" xr3:uid="{17924B17-20D6-CF43-A09F-0DF014962E31}" name="60% Hum"/>
+    <tableColumn id="3" xr3:uid="{3EEBC43A-777E-2846-9FF7-E1E05E534A6D}" name="30% Hum"/>
+    <tableColumn id="4" xr3:uid="{67D50623-E9AA-494A-92FF-BA4E93E4FB9F}" name="85% Hum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6476,4 +9811,331 @@
     <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC85215E-79D9-0644-9A7C-A59B15E431D1}">
+  <dimension ref="A1:N63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="4" width="14.6640625" customWidth="1"/>
+    <col min="14" max="14" width="3.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="31">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="22" thickBot="1">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" ht="17" thickTop="1"/>
+    <row r="5" spans="1:14">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>200</v>
+      </c>
+      <c r="B9">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>500</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>1000</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="22" thickBot="1">
+      <c r="A35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="1:14" ht="17" thickTop="1"/>
+    <row r="37" spans="1:14">
+      <c r="A37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38">
+        <v>1.2</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40">
+        <v>2.7</v>
+      </c>
+      <c r="B40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B41">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="22" thickBot="1">
+      <c r="A53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+    </row>
+    <row r="54" spans="1:14" ht="17" thickTop="1"/>
+    <row r="55" spans="1:14">
+      <c r="A55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56">
+        <v>-10</v>
+      </c>
+      <c r="B56">
+        <v>1.45</v>
+      </c>
+      <c r="C56">
+        <v>1.71</v>
+      </c>
+      <c r="D56">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57">
+        <v>-5</v>
+      </c>
+      <c r="B57">
+        <v>1.38</v>
+      </c>
+      <c r="C57">
+        <v>1.62</v>
+      </c>
+      <c r="D57">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>1.34</v>
+      </c>
+      <c r="C58">
+        <v>1.58</v>
+      </c>
+      <c r="D58">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59">
+        <v>10</v>
+      </c>
+      <c r="B59">
+        <v>1.21</v>
+      </c>
+      <c r="C59">
+        <v>1.42</v>
+      </c>
+      <c r="D59">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60">
+        <v>20</v>
+      </c>
+      <c r="B60">
+        <v>1.06</v>
+      </c>
+      <c r="C60">
+        <v>1.26</v>
+      </c>
+      <c r="D60">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61">
+        <v>30</v>
+      </c>
+      <c r="B61">
+        <v>0.97</v>
+      </c>
+      <c r="C61">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D61">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62">
+        <v>40</v>
+      </c>
+      <c r="B62">
+        <v>0.85</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63">
+        <v>50</v>
+      </c>
+      <c r="B63">
+        <v>0.74</v>
+      </c>
+      <c r="C63">
+        <v>0.86</v>
+      </c>
+      <c r="D63">
+        <v>0.64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/datasheet/Sensitivity_curves.xlsx
+++ b/datasheet/Sensitivity_curves.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ols/git/Arduino-MQ131-driver/datasheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED2BABB-880A-CC43-B293-C237FF9FD4BD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CA7383-33AB-DC48-8210-3924F2DB17DC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="27000" xr2:uid="{C31139D4-38F9-5144-822A-899005BA4EB0}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>ppm</t>
   </si>
@@ -40,25 +40,10 @@
     <t>85% Hum</t>
   </si>
   <si>
-    <t>Rs/R0 NOx</t>
-  </si>
-  <si>
-    <t>Rs/R0 CL2</t>
-  </si>
-  <si>
     <t>Rs/R0 O3</t>
   </si>
   <si>
-    <t>MQ131 (Black bakelite)</t>
-  </si>
-  <si>
     <t>Sensitivity Characteristics</t>
-  </si>
-  <si>
-    <t>Sensitivity NOx</t>
-  </si>
-  <si>
-    <t>Sensitivity CL2</t>
   </si>
   <si>
     <t>Sensitivity O3</t>
@@ -70,31 +55,23 @@
     <t>Temp (°C)</t>
   </si>
   <si>
-    <t>MQ131 (Metal)</t>
+    <t>MQ131 high concentration (Metal)</t>
+  </si>
+  <si>
+    <t>MQ131 low concentration (Black bakelite)</t>
+  </si>
+  <si>
+    <t>ppb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -145,23 +122,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="6">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -175,82 +148,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -270,6 +167,1168 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>O3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MQ131-black'!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ppb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.2474863718958206E-2"/>
+                  <c:y val="-9.1659751037344403E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MQ131-black'!$A$37:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MQ131-black'!$B$37:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FCF9-3D47-B2BD-EDFF9629791E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="384404207"/>
+        <c:axId val="296286383"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="384404207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="296286383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="296286383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="384404207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Influence</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Temperature/Humidity on resistance ratio Rs/R0</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MQ131-black'!$B$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60% Hum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.67535262206148283"/>
+                  <c:y val="-0.47247486608033645"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MQ131-black'!$A$55:$A$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MQ131-black'!$B$55:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CCBF-0241-BB0B-8A5ECDAFC3A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MQ131-black'!$C$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30% Hum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.68258589511754064"/>
+                  <c:y val="-0.54569139383892806"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MQ131-black'!$A$55:$A$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MQ131-black'!$C$55:$C$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CCBF-0241-BB0B-8A5ECDAFC3A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MQ131-black'!$D$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>85% Hum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.69162748643761307"/>
+                  <c:y val="-0.40351153474236773"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MQ131-black'!$A$55:$A$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MQ131-black'!$D$55:$D$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-CCBF-0241-BB0B-8A5ECDAFC3A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="435883135"/>
+        <c:axId val="435884383"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="435883135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435884383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="435884383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.9"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435883135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -352,7 +1411,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Rs/R0 NOx</c:v>
+                  <c:v>Rs/R0 O3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -395,48 +1454,54 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'MQ131-black'!$A$6:$A$10</c:f>
+              <c:f>'MQ131-black'!$A$6:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MQ131-black'!$B$6:$B$10</c:f>
+              <c:f>'MQ131-black'!$B$6:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>1.1200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -445,216 +1510,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4B3C-874E-9C1A-D86E5587D989}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'MQ131-black'!$C$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rs/R0 CL2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'MQ131-black'!$A$6:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'MQ131-black'!$C$6:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4B3C-874E-9C1A-D86E5587D989}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'MQ131-black'!$D$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rs/R0 O3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'MQ131-black'!$A$6:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'MQ131-black'!$D$6:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4B3C-874E-9C1A-D86E5587D989}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -675,6 +1530,7 @@
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -749,7 +1605,8 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="10"/>
+          <c:min val="1.0000000000000002E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -899,790 +1756,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Sensitivity</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>NOx</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'MQ131-black'!$B$37</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ppm</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="7.6196188940133927E-2"/>
-                  <c:y val="-0.11427851690952424"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'MQ131-black'!$A$38:$A$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'MQ131-black'!$B$38:$B$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4E89-1F4B-A191-A60009B39482}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="449896783"/>
-        <c:axId val="295680287"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="449896783"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="295680287"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="295680287"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="449896783"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>CL2</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'MQ131-black'!$B$56</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ppm</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="8.385540790452041E-2"/>
-                  <c:y val="-0.10333997043473007"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'MQ131-black'!$A$57:$A$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'MQ131-black'!$B$57:$B$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A383-F34B-BBFA-A87FF1A21B62}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="473431119"/>
-        <c:axId val="473432799"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="473431119"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="473432799"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="473432799"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="473431119"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1757,7 +1830,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'MQ131-black'!$B$74</c:f>
+              <c:f>'MQ131-metal'!$B$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1837,48 +1910,54 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'MQ131-black'!$A$75:$A$79</c:f>
+              <c:f>'MQ131-metal'!$A$38:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1499999999999999</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>4.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3</c:v>
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MQ131-black'!$B$75:$B$79</c:f>
+              <c:f>'MQ131-metal'!$B$38:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1886,7 +1965,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FCF9-3D47-B2BD-EDFF9629791E}"/>
+              <c16:uniqueId val="{00000001-CD55-FF4F-8C41-9D1F5B20FDDF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2150,7 +2229,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'MQ131-black'!$B$92</c:f>
+              <c:f>'MQ131-metal'!$B$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2197,8 +2276,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.67535262206148283"/>
-                  <c:y val="-0.47247486608033645"/>
+                  <c:x val="-0.688042226487524"/>
+                  <c:y val="-0.47768921428681066"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2230,7 +2309,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'MQ131-black'!$A$93:$A$100</c:f>
+              <c:f>'MQ131-metal'!$A$56:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2263,7 +2342,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MQ131-black'!$B$93:$B$100</c:f>
+              <c:f>'MQ131-metal'!$B$56:$B$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2297,7 +2376,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CCBF-0241-BB0B-8A5ECDAFC3A2}"/>
+              <c16:uniqueId val="{00000001-34FB-E64A-9B1A-3A8CD7DAAFA9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2306,7 +2385,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'MQ131-black'!$C$92</c:f>
+              <c:f>'MQ131-metal'!$C$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2353,8 +2432,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.68258589511754064"/>
-                  <c:y val="-0.54569139383892806"/>
+                  <c:x val="-0.67268714011516317"/>
+                  <c:y val="-0.55590980951942415"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2386,7 +2465,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'MQ131-black'!$A$93:$A$100</c:f>
+              <c:f>'MQ131-metal'!$A$56:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2419,7 +2498,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MQ131-black'!$C$93:$C$100</c:f>
+              <c:f>'MQ131-metal'!$C$56:$C$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2453,7 +2532,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-CCBF-0241-BB0B-8A5ECDAFC3A2}"/>
+              <c16:uniqueId val="{00000003-34FB-E64A-9B1A-3A8CD7DAAFA9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2462,7 +2541,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'MQ131-black'!$D$92</c:f>
+              <c:f>'MQ131-metal'!$D$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2509,8 +2588,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.69162748643761307"/>
-                  <c:y val="-0.40351153474236773"/>
+                  <c:x val="-0.70723608445297503"/>
+                  <c:y val="-0.39526592070728001"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2542,7 +2621,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'MQ131-black'!$A$93:$A$100</c:f>
+              <c:f>'MQ131-metal'!$A$56:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2575,7 +2654,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MQ131-black'!$D$93:$D$100</c:f>
+              <c:f>'MQ131-metal'!$D$56:$D$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2609,7 +2688,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-CCBF-0241-BB0B-8A5ECDAFC3A2}"/>
+              <c16:uniqueId val="{00000005-34FB-E64A-9B1A-3A8CD7DAAFA9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2871,400 +2950,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>O3</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'MQ131-metal'!$B$37</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ppm</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="5.3267811403092682E-2"/>
-                  <c:y val="-9.531195528039911E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'MQ131-metal'!$A$38:$A$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'MQ131-metal'!$B$38:$B$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CD55-FF4F-8C41-9D1F5B20FDDF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="384404207"/>
-        <c:axId val="296286383"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="384404207"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="296286383"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="296286383"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="384404207"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Sensitivity</a:t>
             </a:r>
             <a:r>
@@ -3578,774 +3263,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="435868271"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Influence</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of Temperature/Humidity on resistance ratio Rs/R0</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'MQ131-metal'!$B$55</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>60% Hum</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.688042226487524"/>
-                  <c:y val="-0.47768921428681066"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'MQ131-metal'!$A$56:$A$63</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'MQ131-metal'!$B$56:$B$63</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.45</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.38</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.34</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.21</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.97</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.74</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-34FB-E64A-9B1A-3A8CD7DAAFA9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'MQ131-metal'!$C$55</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>30% Hum</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.67268714011516317"/>
-                  <c:y val="-0.55590980951942415"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'MQ131-metal'!$A$56:$A$63</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'MQ131-metal'!$C$56:$C$63</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.71</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.62</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.58</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.86</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-34FB-E64A-9B1A-3A8CD7DAAFA9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'MQ131-metal'!$D$55</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>85% Hum</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.70723608445297503"/>
-                  <c:y val="-0.39526592070728001"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'MQ131-metal'!$A$56:$A$63</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'MQ131-metal'!$D$56:$D$63</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.05</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.91</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.74</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-34FB-E64A-9B1A-3A8CD7DAAFA9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="435883135"/>
-        <c:axId val="435884383"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="435883135"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="50"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="435884383"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="435884383"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1.9"/>
-          <c:min val="0.5"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="435883135"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4669,86 +3586,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7665,980 +6502,82 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{540FA70C-BF37-A64B-B85E-E9DE18D7BA0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6444500D-01D1-D746-A87C-B76C162D3DDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -8669,153 +6608,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4AD16EC-E2A3-3043-B0D5-E3C08E30F41F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8236C6A-2409-8340-AFC1-59FC4451C71F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{540FA70C-BF37-A64B-B85E-E9DE18D7BA0D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6444500D-01D1-D746-A87C-B76C162D3DDE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8868,6 +6661,44 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{232719B5-3991-3E4A-A630-564E7757E4E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -8896,44 +6727,6 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{232719B5-3991-3E4A-A630-564E7757E4E1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
@@ -8944,54 +6737,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC3EBC91-A6EC-EF41-B88C-8EE6CA41C528}" name="Table1" displayName="Table1" ref="A5:D10" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="A5:D10" xr:uid="{187AC7DF-F74C-3449-A57E-29E6156055B3}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{54E9389B-17C2-4B4B-8046-BD403932BF48}" name="ppm"/>
-    <tableColumn id="2" xr3:uid="{090AD84B-9E43-584C-8434-7C53281DD125}" name="Rs/R0 NOx"/>
-    <tableColumn id="3" xr3:uid="{B4965486-E158-2646-A9FC-D4434C8E318B}" name="Rs/R0 CL2"/>
-    <tableColumn id="4" xr3:uid="{7506C3D7-79A2-D64D-AF94-20BF5B446CD5}" name="Rs/R0 O3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC3EBC91-A6EC-EF41-B88C-8EE6CA41C528}" name="Table1" displayName="Table1" ref="A5:B11" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A5:B11" xr:uid="{187AC7DF-F74C-3449-A57E-29E6156055B3}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{54E9389B-17C2-4B4B-8046-BD403932BF48}" name="ppb"/>
+    <tableColumn id="2" xr3:uid="{090AD84B-9E43-584C-8434-7C53281DD125}" name="Rs/R0 O3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E5370191-2BA5-444A-AFC7-78BEE24C9DF8}" name="Table2" displayName="Table2" ref="A37:B42" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A37:B42" xr:uid="{4EC90098-BA39-1F4E-A803-1439A56715C0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D0BAF09F-B6B5-D749-98CA-1059D0FE6D3F}" name="Table4" displayName="Table4" ref="A36:B42" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A36:B42" xr:uid="{5BA3FEEF-229E-6244-AB51-3FD355D1344E}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1758A4A2-4705-724E-A6DE-1A972C938640}" name="Rs/R0 NOx" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{5D10AE50-6B84-B843-9DE6-D0A950F46719}" name="ppm" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{15ED33C0-6F64-F241-9018-F23294D8BF12}" name="Rs/R0 O3"/>
+    <tableColumn id="2" xr3:uid="{1286E49A-4CCE-AA46-8C38-786A536DEB0B}" name="ppb"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DEA1B590-A888-3945-8956-275AE7EF56E0}" name="Table3" displayName="Table3" ref="A56:B61" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A56:B61" xr:uid="{03BE280C-4E19-5746-A006-AF7905CD1084}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{CD3A47FA-7FC9-0243-BAEB-EF7653787F3D}" name="Rs/R0 CL2"/>
-    <tableColumn id="2" xr3:uid="{82510DB2-57E2-014B-90B2-3EE86EA04D49}" name="ppm"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D0BAF09F-B6B5-D749-98CA-1059D0FE6D3F}" name="Table4" displayName="Table4" ref="A74:B79" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A74:B79" xr:uid="{5BA3FEEF-229E-6244-AB51-3FD355D1344E}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{15ED33C0-6F64-F241-9018-F23294D8BF12}" name="Rs/R0 O3"/>
-    <tableColumn id="2" xr3:uid="{1286E49A-4CCE-AA46-8C38-786A536DEB0B}" name="ppm"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A3D6E9DD-3D66-5441-9E83-006E7A378DC8}" name="Table5" displayName="Table5" ref="A92:D100" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A92:D100" xr:uid="{548C53A6-F6A9-FD4E-986D-AE4C1DC18978}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A3D6E9DD-3D66-5441-9E83-006E7A378DC8}" name="Table5" displayName="Table5" ref="A54:D62" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A54:D62" xr:uid="{548C53A6-F6A9-FD4E-986D-AE4C1DC18978}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{C66C4C25-C90F-7248-889A-271BDEC6FBB3}" name="Temp (°C)"/>
     <tableColumn id="2" xr3:uid="{7FB1B544-147F-2F46-B10B-A629F5589787}" name="60% Hum"/>
@@ -9002,7 +6771,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{239B6DEF-C938-2541-A79C-4DF65B42830B}" name="Table17" displayName="Table17" ref="A5:B11" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A5:B11" xr:uid="{187AC7DF-F74C-3449-A57E-29E6156055B3}"/>
   <tableColumns count="2">
@@ -9013,7 +6782,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{6262E926-7604-CB4C-8422-B01DC0D773F7}" name="Table410" displayName="Table410" ref="A37:B43" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A37:B43" xr:uid="{5BA3FEEF-229E-6244-AB51-3FD355D1344E}"/>
   <tableColumns count="2">
@@ -9024,7 +6793,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{9C92E0EC-588B-EE45-A3CD-F738A1B67788}" name="Table511" displayName="Table511" ref="A55:D63" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A55:D63" xr:uid="{548C53A6-F6A9-FD4E-986D-AE4C1DC18978}"/>
   <tableColumns count="4">
@@ -9334,10 +7103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0424E53-719E-B34D-9808-C7CEC2428F4D}">
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9347,468 +7116,314 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="31">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
+      <c r="A1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="22" thickBot="1">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="17" thickTop="1"/>
     <row r="5" spans="1:14">
-      <c r="A5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B7">
-        <v>5.5</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>2.2000000000000002</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>2.4</v>
-      </c>
-      <c r="D8">
-        <v>1.1499999999999999</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="B9">
-        <v>2.8</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>0.5</v>
-      </c>
-      <c r="D10">
-        <v>0.3</v>
+        <v>5.6</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="22" thickBot="1">
-      <c r="A35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>1000</v>
+      </c>
+      <c r="B11">
+        <v>7.5</v>
+      </c>
     </row>
-    <row r="36" spans="1:14" ht="17" thickTop="1"/>
-    <row r="37" spans="1:14" ht="16" customHeight="1">
-      <c r="A37" s="6" t="s">
+    <row r="34" spans="1:14" ht="22" thickBot="1">
+      <c r="A34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="1:14" ht="17" thickTop="1"/>
+    <row r="36" spans="1:14">
+      <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>0</v>
+      <c r="B36" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="1">
-        <v>8</v>
-      </c>
-      <c r="B38" s="1">
-        <v>5</v>
+      <c r="A38">
+        <v>1.9</v>
+      </c>
+      <c r="B38">
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="B39" s="1">
-        <v>10</v>
+      <c r="A39">
+        <v>2.5</v>
+      </c>
+      <c r="B39">
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="1">
-        <v>4</v>
-      </c>
-      <c r="B40" s="1">
-        <v>20</v>
+      <c r="A40">
+        <v>3.8</v>
+      </c>
+      <c r="B40">
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="B41" s="1">
-        <v>50</v>
+      <c r="A41">
+        <v>5.6</v>
+      </c>
+      <c r="B41">
+        <v>500</v>
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="1">
+      <c r="A42">
+        <v>7.5</v>
+      </c>
+      <c r="B42">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="22" thickBot="1">
+      <c r="A52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+    </row>
+    <row r="53" spans="1:14" ht="17" thickTop="1"/>
+    <row r="54" spans="1:14">
+      <c r="A54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="1">
-        <v>100</v>
+      <c r="D54" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="22" thickBot="1">
-      <c r="A54" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
+    <row r="55" spans="1:14">
+      <c r="A55">
+        <v>-10</v>
+      </c>
+      <c r="B55">
+        <v>1.45</v>
+      </c>
+      <c r="C55">
+        <v>1.71</v>
+      </c>
+      <c r="D55">
+        <v>1.26</v>
+      </c>
     </row>
-    <row r="55" spans="1:14" ht="17" thickTop="1"/>
     <row r="56" spans="1:14">
-      <c r="A56" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>0</v>
+      <c r="A56">
+        <v>-5</v>
+      </c>
+      <c r="B56">
+        <v>1.38</v>
+      </c>
+      <c r="C56">
+        <v>1.62</v>
+      </c>
+      <c r="D56">
+        <v>1.2</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B57">
-        <v>5</v>
+        <v>1.34</v>
+      </c>
+      <c r="C57">
+        <v>1.58</v>
+      </c>
+      <c r="D57">
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B58">
-        <v>10</v>
+        <v>1.21</v>
+      </c>
+      <c r="C58">
+        <v>1.42</v>
+      </c>
+      <c r="D58">
+        <v>1.05</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59">
-        <v>2.4</v>
+        <v>20</v>
       </c>
       <c r="B59">
-        <v>20</v>
+        <v>1.06</v>
+      </c>
+      <c r="C59">
+        <v>1.26</v>
+      </c>
+      <c r="D59">
+        <v>0.91</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B60">
-        <v>50</v>
+        <v>0.97</v>
+      </c>
+      <c r="C60">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D60">
+        <v>0.85</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61">
-        <v>0.5</v>
+        <v>40</v>
       </c>
       <c r="B61">
-        <v>100</v>
+        <v>0.85</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0.74</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="22" thickBot="1">
-      <c r="A72" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-    </row>
-    <row r="73" spans="1:14" ht="17" thickTop="1"/>
-    <row r="74" spans="1:14">
-      <c r="A74" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
-      <c r="A75">
-        <v>4</v>
-      </c>
-      <c r="B75">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
-      <c r="A76">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B76">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="A77">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="B77">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="A78">
-        <v>0.5</v>
-      </c>
-      <c r="B78">
+    <row r="62" spans="1:14">
+      <c r="A62">
         <v>50</v>
       </c>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="A79">
-        <v>0.3</v>
-      </c>
-      <c r="B79">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" ht="22" thickBot="1">
-      <c r="A90" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
-      <c r="L90" s="5"/>
-      <c r="M90" s="5"/>
-      <c r="N90" s="5"/>
-    </row>
-    <row r="91" spans="1:14" ht="17" thickTop="1"/>
-    <row r="92" spans="1:14">
-      <c r="A92" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
-      <c r="A93">
-        <v>-10</v>
-      </c>
-      <c r="B93">
-        <v>1.45</v>
-      </c>
-      <c r="C93">
-        <v>1.71</v>
-      </c>
-      <c r="D93">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
-      <c r="A94">
-        <v>-5</v>
-      </c>
-      <c r="B94">
-        <v>1.38</v>
-      </c>
-      <c r="C94">
-        <v>1.62</v>
-      </c>
-      <c r="D94">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
-      <c r="A95">
-        <v>0</v>
-      </c>
-      <c r="B95">
-        <v>1.34</v>
-      </c>
-      <c r="C95">
-        <v>1.58</v>
-      </c>
-      <c r="D95">
-        <v>1.1599999999999999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
-      <c r="A96">
-        <v>10</v>
-      </c>
-      <c r="B96">
-        <v>1.21</v>
-      </c>
-      <c r="C96">
-        <v>1.42</v>
-      </c>
-      <c r="D96">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97">
-        <v>20</v>
-      </c>
-      <c r="B97">
-        <v>1.06</v>
-      </c>
-      <c r="C97">
-        <v>1.26</v>
-      </c>
-      <c r="D97">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98">
-        <v>30</v>
-      </c>
-      <c r="B98">
-        <v>0.97</v>
-      </c>
-      <c r="C98">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="D98">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99">
-        <v>40</v>
-      </c>
-      <c r="B99">
-        <v>0.85</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-      <c r="D99">
+      <c r="B62">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100">
-        <v>50</v>
-      </c>
-      <c r="B100">
-        <v>0.74</v>
-      </c>
-      <c r="C100">
+      <c r="C62">
         <v>0.86</v>
       </c>
-      <c r="D100">
+      <c r="D62">
         <v>0.64</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="5">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -9818,7 +7433,7 @@
   <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="A6" sqref="A6:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9828,38 +7443,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="31">
-      <c r="A1" s="2" t="s">
-        <v>14</v>
+      <c r="A1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="22" thickBot="1">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="17" thickTop="1"/>
     <row r="5" spans="1:14">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6">
@@ -9910,29 +7525,29 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="22" thickBot="1">
-      <c r="A35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
+      <c r="A35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
     </row>
     <row r="36" spans="1:14" ht="17" thickTop="1"/>
     <row r="37" spans="1:14">
-      <c r="A37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="A37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9985,35 +7600,35 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="22" thickBot="1">
-      <c r="A53" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
+      <c r="A53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
     </row>
     <row r="54" spans="1:14" ht="17" thickTop="1"/>
     <row r="55" spans="1:14">
-      <c r="A55" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" s="3" t="s">
+      <c r="A55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="2" t="s">
         <v>3</v>
       </c>
     </row>
